--- a/forms/incidents/incidents.xlsx
+++ b/forms/incidents/incidents.xlsx
@@ -9,17 +9,17 @@
     <sheet state="visible" name="warnings" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_CB9CFE93_4F16_4001_9316_590121FAEA47_.wvu.FilterData">survey!$A$1:$A$31</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_239664B0_4708_4B14_B60E_C33E8E582AFB_.wvu.FilterData">survey!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{CB9CFE93-4F16-4001-9316-590121FAEA47}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{239664B0-4708-4B14-B60E-C33E8E582AFB}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="111">
   <si>
     <t>type</t>
   </si>
@@ -273,13 +273,25 @@
     <t>social_cultural_issue</t>
   </si>
   <si>
-    <t>Social or cultural issue</t>
+    <t>Social, cultural, or religious issue</t>
   </si>
   <si>
     <t>safety_issue</t>
   </si>
   <si>
     <t>Safety issue</t>
+  </si>
+  <si>
+    <t>community_resistance</t>
+  </si>
+  <si>
+    <t>Community resistance</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>Crime</t>
   </si>
   <si>
     <t>other</t>
@@ -570,10 +582,10 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -2488,7 +2500,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CB9CFE93-4F16-4001-9316-590121FAEA47}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{239664B0-4708-4B14-B60E-C33E8E582AFB}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$A$31"/>
     </customSheetView>
   </customSheetViews>
@@ -2616,59 +2628,93 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="27" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>92</v>
+      <c r="E6" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="B8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>95</v>
+      <c r="B9" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:E7 B2:B5">
+  <conditionalFormatting sqref="C1:E4 B2:B4 B6:B7 C6:E9">
     <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
@@ -2685,43 +2731,43 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>99</v>
+      <c r="A1" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>103</v>
+      <c r="A2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>105</v>
+      <c r="E2" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="F2" s="31">
-        <v>2.021022602E9</v>
+        <v>2.021022604E9</v>
       </c>
     </row>
     <row r="8">
@@ -3720,8 +3766,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>106</v>
+      <c r="A1" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
